--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="InputData" sheetId="1" r:id="rId1"/>
+    <sheet name="Team" sheetId="2" r:id="rId2"/>
+    <sheet name="Cat" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,24 +26,264 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>TestCase</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>benja</t>
-  </si>
-  <si>
-    <t>hola</t>
-  </si>
-  <si>
-    <t>passed</t>
+    <t>MTC_0020_HP_UAT_CN_Tipo7_DDA+TDC_TR Tipo 7 US person</t>
+  </si>
+  <si>
+    <t>Realizar una apertura exitosa de  DDA + TDC con un cliente nuevo tipo de persona 7,validar que: al ingresar el número de cliente o número de tarjeta y no se encuentran resultados el cliente pueda modificar la información , se solicite el SSN/TIN para TR, que se guarde la fecha de clasificación FATCA,que se generen los formatos WL y W9 para TR con la información del TR prellenada,que se clasifique como US person en FATCA,que se soliciten las firma del WL y W9 para TR y validar que se indica en  la sección persona autorizada de la Solicitud Única que entregó WL y W9</t>
+  </si>
+  <si>
+    <t>Titular Non US person (nacionalidad y país de nacimiento diferentes a EEUU y sus territorios)
+CRS(SI-NO)
+Adicional Tipo 7 US Person
+Portabilidad de nómina SI
+Tarjeta entrega a domicilio
+No certificó celular-El cliente no cuenta con celular disponible
+Generación de cuenta clabe reglas correctas</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Num Cliente</t>
+  </si>
+  <si>
+    <t>85787738</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido P</t>
+  </si>
+  <si>
+    <t>Apellido M</t>
+  </si>
+  <si>
+    <t>Fecha Nacimiento</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Centeno</t>
+  </si>
+  <si>
+    <t>10/08/1972</t>
+  </si>
+  <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>MICV720820J82</t>
+  </si>
+  <si>
+    <t>Id Test Case</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>Test Lead</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Business Manager</t>
+  </si>
+  <si>
+    <t>Sandra Pintado</t>
+  </si>
+  <si>
+    <t>QA Manager</t>
+  </si>
+  <si>
+    <t>Omar Martinez</t>
+  </si>
+  <si>
+    <t>Test Lead  Sucursales</t>
+  </si>
+  <si>
+    <t>Martin Herrera</t>
+  </si>
+  <si>
+    <t>Test Lead Partners / Paperless</t>
+  </si>
+  <si>
+    <t>Greg Gazca</t>
+  </si>
+  <si>
+    <t>Lead Nominas</t>
+  </si>
+  <si>
+    <t>Viviana Martinez</t>
+  </si>
+  <si>
+    <t>Lead Paquete Digital</t>
+  </si>
+  <si>
+    <t>Mario Ramos</t>
+  </si>
+  <si>
+    <t>Lead proyectos Collaborate</t>
+  </si>
+  <si>
+    <t>Gabriel Ruiz</t>
+  </si>
+  <si>
+    <t>Lead Production Support</t>
+  </si>
+  <si>
+    <t>Victor Miranda</t>
+  </si>
+  <si>
+    <t>Lead PaperLess</t>
+  </si>
+  <si>
+    <t>Monserrat Vera</t>
+  </si>
+  <si>
+    <t>Legales</t>
+  </si>
+  <si>
+    <t>Gustavo Ramirez</t>
+  </si>
+  <si>
+    <t>Nayeli Cisneros</t>
+  </si>
+  <si>
+    <t>Laura Mejia</t>
+  </si>
+  <si>
+    <t>Ingrid Moreno</t>
+  </si>
+  <si>
+    <t>Mauricio Rosas</t>
+  </si>
+  <si>
+    <t>Karen Castro</t>
+  </si>
+  <si>
+    <t>Adriana Jimenez</t>
+  </si>
+  <si>
+    <t>Raul Isunza</t>
+  </si>
+  <si>
+    <t>Tester Automatización</t>
+  </si>
+  <si>
+    <t>Benjamin Alonso</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Lilas 899</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>Calle y num</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>MEXICANA</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>MÉXICO</t>
+  </si>
+  <si>
+    <t>Tipo de persona</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Persona física radicando en el país</t>
+  </si>
+  <si>
+    <t>Persona física con actividad empresarial radicando en el país</t>
+  </si>
+  <si>
+    <t>Persona física extranjera radicando en el país</t>
+  </si>
+  <si>
+    <t>Persona física extranjera con actividad empresarial radicando en el país</t>
+  </si>
+  <si>
+    <t>Tipo de documento</t>
+  </si>
+  <si>
+    <t>IFE</t>
+  </si>
+  <si>
+    <t>Tarjeta de credito/ debito</t>
+  </si>
+  <si>
+    <t>Tipo tarjeta de credito/ debito</t>
+  </si>
+  <si>
+    <t>OCR</t>
+  </si>
+  <si>
+    <t>Ano registro</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>Cuenta Maestra</t>
+  </si>
+  <si>
+    <t>1122334455</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
   </si>
 </sst>
 </file>
@@ -77,16 +319,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="37">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -97,10 +348,132 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -116,14 +489,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C2"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="TestCase" dataDxfId="2"/>
-    <tableColumn id="2" name="Description" dataDxfId="1"/>
-    <tableColumn id="3" name="Result" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X6" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:X6"/>
+  <tableColumns count="24">
+    <tableColumn id="1" name="Id Test Case" dataDxfId="36"/>
+    <tableColumn id="12" name="Test Case" dataDxfId="23"/>
+    <tableColumn id="2" name="Objective" dataDxfId="35"/>
+    <tableColumn id="3" name="Requirements" dataDxfId="34"/>
+    <tableColumn id="4" name="Tester" dataDxfId="33"/>
+    <tableColumn id="13" name="Test Lead" dataDxfId="22"/>
+    <tableColumn id="5" name="Status" dataDxfId="32"/>
+    <tableColumn id="14" name="Url" dataDxfId="17"/>
+    <tableColumn id="6" name="Num Cliente" dataDxfId="31"/>
+    <tableColumn id="7" name="Nombre" dataDxfId="28"/>
+    <tableColumn id="8" name="Apellido P" dataDxfId="27"/>
+    <tableColumn id="9" name="Apellido M" dataDxfId="26"/>
+    <tableColumn id="10" name="Fecha Nacimiento" dataDxfId="25"/>
+    <tableColumn id="11" name="RFC" dataDxfId="24"/>
+    <tableColumn id="15" name="Calle y num" dataDxfId="16"/>
+    <tableColumn id="16" name="CP" dataDxfId="15"/>
+    <tableColumn id="17" name="Nacionalidad" dataDxfId="14"/>
+    <tableColumn id="18" name="Pais" dataDxfId="13"/>
+    <tableColumn id="19" name="Tipo de persona" dataDxfId="12"/>
+    <tableColumn id="20" name="Tipo de documento" dataDxfId="11"/>
+    <tableColumn id="21" name="Tarjeta de credito/ debito" dataDxfId="10"/>
+    <tableColumn id="22" name="Tipo tarjeta de credito/ debito" dataDxfId="9"/>
+    <tableColumn id="23" name="OCR" dataDxfId="8"/>
+    <tableColumn id="24" name="Ano registro" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B19" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:B19"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Nombre" dataDxfId="21"/>
+    <tableColumn id="2" name="Rol" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:B5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Description" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="D1:D2" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="D1:D2"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Tipo de documento" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -390,46 +816,572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Team!$A$4:$A$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Team!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Cat!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>S2:S6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>